--- a/backend/static/DENTAL ACCOMPLISHMENT REPORT.xlsx
+++ b/backend/static/DENTAL ACCOMPLISHMENT REPORT.xlsx
@@ -548,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/backend/static/DENTAL ACCOMPLISHMENT REPORT.xlsx
+++ b/backend/static/DENTAL ACCOMPLISHMENT REPORT.xlsx
@@ -545,10 +545,10 @@
         <v>2025</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
